--- a/Gestion_de_Cursos/Sistema/informacion_modificable/info.xlsx
+++ b/Gestion_de_Cursos/Sistema/informacion_modificable/info.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="2024" r:id="rId3" sheetId="1"/>
+    <sheet name="2023" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>Director:</t>
   </si>
@@ -63,6 +64,48 @@
   </si>
   <si>
     <t>Andrea Jacqueline Burgos Perea</t>
+  </si>
+  <si>
+    <t>hodo</t>
+  </si>
+  <si>
+    <t>yop</t>
+  </si>
+  <si>
+    <t>jejej</t>
+  </si>
+  <si>
+    <t>wwd</t>
+  </si>
+  <si>
+    <t>dwdw</t>
+  </si>
+  <si>
+    <t>dsds</t>
+  </si>
+  <si>
+    <t>asas</t>
+  </si>
+  <si>
+    <t>asaddaasas</t>
+  </si>
+  <si>
+    <t>csdjsd</t>
+  </si>
+  <si>
+    <t>ada</t>
+  </si>
+  <si>
+    <t>sdsds</t>
+  </si>
+  <si>
+    <t>Director vent</t>
+  </si>
+  <si>
+    <t>Jefe vent</t>
+  </si>
+  <si>
+    <t>Coordi vent</t>
   </si>
 </sst>
 </file>
@@ -114,7 +157,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="24.98046875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="5.83984375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -122,7 +165,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
@@ -130,7 +173,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
@@ -138,7 +181,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4">
@@ -146,7 +189,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>100.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
@@ -154,7 +197,61 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>500.0</v>
+        <v>100.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="24.98046875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.64453125" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>100.0</v>
       </c>
     </row>
   </sheetData>

--- a/Gestion_de_Cursos/Sistema/informacion_modificable/info.xlsx
+++ b/Gestion_de_Cursos/Sistema/informacion_modificable/info.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Director:</t>
   </si>
@@ -54,6 +54,15 @@
   </si>
   <si>
     <t>Sebas</t>
+  </si>
+  <si>
+    <t>Samuel Villanueva Aguero</t>
+  </si>
+  <si>
+    <t>Maritza Flores Sarabia</t>
+  </si>
+  <si>
+    <t>Andrea Jacqueline Burgos Perea</t>
   </si>
 </sst>
 </file>
@@ -105,7 +114,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="24.98046875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="7.18359375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -113,7 +122,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2">
@@ -121,7 +130,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -129,7 +138,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
@@ -145,7 +154,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>125.0</v>
+        <v>500.0</v>
       </c>
     </row>
   </sheetData>

--- a/Gestion_de_Cursos/Sistema/informacion_modificable/info.xlsx
+++ b/Gestion_de_Cursos/Sistema/informacion_modificable/info.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="20">
   <si>
     <t>Director:</t>
   </si>
@@ -24,88 +24,55 @@
     <t>Coordinador:</t>
   </si>
   <si>
-    <t>Periodo Enero-Julio:</t>
-  </si>
-  <si>
-    <t>Periodo Agosto-Diciembre:</t>
-  </si>
-  <si>
-    <t>Dir</t>
-  </si>
-  <si>
-    <t>Jefe</t>
-  </si>
-  <si>
-    <t>Coord</t>
-  </si>
-  <si>
-    <t>Director Nuevo</t>
-  </si>
-  <si>
-    <t>Lemus</t>
-  </si>
-  <si>
-    <t>Estela</t>
-  </si>
-  <si>
-    <t>Samito</t>
-  </si>
-  <si>
-    <t>Jaky</t>
-  </si>
-  <si>
-    <t>Sebas</t>
-  </si>
-  <si>
-    <t>Samuel Villanueva Aguero</t>
-  </si>
-  <si>
-    <t>Maritza Flores Sarabia</t>
-  </si>
-  <si>
-    <t>Andrea Jacqueline Burgos Perea</t>
-  </si>
-  <si>
-    <t>hodo</t>
-  </si>
-  <si>
-    <t>yop</t>
-  </si>
-  <si>
-    <t>jejej</t>
-  </si>
-  <si>
-    <t>wwd</t>
-  </si>
-  <si>
-    <t>dwdw</t>
-  </si>
-  <si>
-    <t>dsds</t>
-  </si>
-  <si>
-    <t>asas</t>
-  </si>
-  <si>
-    <t>asaddaasas</t>
-  </si>
-  <si>
-    <t>csdjsd</t>
-  </si>
-  <si>
-    <t>ada</t>
-  </si>
-  <si>
-    <t>sdsds</t>
-  </si>
-  <si>
-    <t>Director vent</t>
-  </si>
-  <si>
-    <t>Jefe vent</t>
-  </si>
-  <si>
-    <t>Coordi vent</t>
+    <t>Periodo:</t>
+  </si>
+  <si>
+    <t>CIENCIAS BASICAS</t>
+  </si>
+  <si>
+    <t>CIENCIAS ECONOMICO ADMINISTRATIVO</t>
+  </si>
+  <si>
+    <t>CIENCIAS DE LA TIERRA</t>
+  </si>
+  <si>
+    <t>INGENIERIA INDUSTRIAL</t>
+  </si>
+  <si>
+    <t>METAL MECANICA</t>
+  </si>
+  <si>
+    <t>QUIMICA Y BIOQUIMICA</t>
+  </si>
+  <si>
+    <t>SISTEMAS COMPUTACIONALES</t>
+  </si>
+  <si>
+    <t>POSGRADO</t>
+  </si>
+  <si>
+    <t>ddddddddddddddd</t>
+  </si>
+  <si>
+    <t>jeeeeeeeeeeeeeeee</t>
+  </si>
+  <si>
+    <t>coooooooooooooo</t>
+  </si>
+  <si>
+    <t>Agosto-Diciembre</t>
+  </si>
+  <si>
+    <t>Enero-Julio</t>
+  </si>
+  <si>
+    <t>aaaaaaaaaaaa</t>
+  </si>
+  <si>
+    <t>aaaaaaaaaaaaaaaaa</t>
+  </si>
+  <si>
+    <t>aaaaaaaaaaaaaaaa</t>
   </si>
 </sst>
 </file>
@@ -155,17 +122,13 @@
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="24.98046875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="5.83984375" collapsed="true"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2">
@@ -173,7 +136,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
@@ -181,15 +144,15 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="n">
-        <v>1.0</v>
+      <c r="B4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -197,7 +160,132 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>100.0</v>
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="n">
+        <v>171.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="n">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" t="n">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" t="n">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="n">
+        <v>80.0</v>
       </c>
     </row>
   </sheetData>
@@ -212,17 +300,13 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="24.98046875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.64453125" customWidth="true" bestFit="true"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -230,7 +314,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -238,20 +322,124 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="n">
-        <v>100.0</v>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="n">
+        <v>159.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" t="n">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="n">
+        <v>80.0</v>
       </c>
     </row>
   </sheetData>

--- a/Gestion_de_Cursos/Sistema/informacion_modificable/info.xlsx
+++ b/Gestion_de_Cursos/Sistema/informacion_modificable/info.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
   <si>
     <t>Director:</t>
   </si>
@@ -56,13 +56,13 @@
     <t>Periodo Agosto-Diciembre:</t>
   </si>
   <si>
-    <t>dddddddddddd</t>
-  </si>
-  <si>
-    <t>jjjjjjjjjjjjjjjjjjjjjjj</t>
-  </si>
-  <si>
-    <t>ccccccccccccccc</t>
+    <t>direc</t>
+  </si>
+  <si>
+    <t>jefe</t>
+  </si>
+  <si>
+    <t>coo</t>
   </si>
 </sst>
 </file>
@@ -142,7 +142,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>87.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="5">
@@ -150,7 +150,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="6">
@@ -158,7 +158,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>11.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="7">
@@ -166,7 +166,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>11.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="8">
@@ -174,7 +174,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>11.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="9">
@@ -182,7 +182,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>11.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="10">
@@ -190,7 +190,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>11.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="11">
@@ -198,7 +198,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="n">
-        <v>11.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="12">
@@ -206,7 +206,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="n">
-        <v>11.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="13">
@@ -214,7 +214,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="n">
-        <v>452.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="14">
@@ -222,7 +222,7 @@
         <v>5</v>
       </c>
       <c r="B14" t="n">
-        <v>67.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="15">
@@ -230,7 +230,7 @@
         <v>6</v>
       </c>
       <c r="B15" t="n">
-        <v>55.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="16">
@@ -238,7 +238,7 @@
         <v>7</v>
       </c>
       <c r="B16" t="n">
-        <v>55.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="17">
@@ -246,7 +246,7 @@
         <v>8</v>
       </c>
       <c r="B17" t="n">
-        <v>55.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="18">
@@ -254,7 +254,7 @@
         <v>9</v>
       </c>
       <c r="B18" t="n">
-        <v>55.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="19">
@@ -262,7 +262,7 @@
         <v>10</v>
       </c>
       <c r="B19" t="n">
-        <v>55.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="20">
@@ -270,7 +270,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="n">
-        <v>55.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="21">
@@ -278,7 +278,7 @@
         <v>12</v>
       </c>
       <c r="B21" t="n">
-        <v>55.0</v>
+        <v>10.0</v>
       </c>
     </row>
   </sheetData>

--- a/Gestion_de_Cursos/Sistema/informacion_modificable/info.xlsx
+++ b/Gestion_de_Cursos/Sistema/informacion_modificable/info.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
   <si>
     <t>Director:</t>
   </si>
@@ -69,6 +69,18 @@
   </si>
   <si>
     <t>coordi</t>
+  </si>
+  <si>
+    <t>NORMA ROCIO</t>
+  </si>
+  <si>
+    <t>MARITZA FLORES SARABIA</t>
+  </si>
+  <si>
+    <t>SEBASTIÁN BONILLA HERNANDEZ</t>
+  </si>
+  <si>
+    <t>NORMA ROCIO GONZALEZ</t>
   </si>
 </sst>
 </file>
@@ -128,7 +140,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
@@ -136,7 +148,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -144,7 +156,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
@@ -224,7 +236,7 @@
         <v>4</v>
       </c>
       <c r="B13" t="n">
-        <v>269.0</v>
+        <v>249.0</v>
       </c>
     </row>
     <row r="14">
@@ -256,7 +268,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="n">
-        <v>100.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="18">
